--- a/biology/Zoologie/Antsirananaella/Antsirananaella.xlsx
+++ b/biology/Zoologie/Antsirananaella/Antsirananaella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antsirananaella est un genre de pseudoscorpions de la famille des Feaellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Madagascar[1]. Elles se rencontrent dans les régions Diana et Sava.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Madagascar. Elles se rencontrent dans les régions Diana et Sava.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Lorenz, Loria, Harvey et Harms en 2022[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Lorenz, Loria, Harvey et Harms en 2022 :
 Antsirananaella faulstichi Lorenz, Loria, Harvey &amp; Harms, 2022
 Antsirananaella leniae Lorenz, Loria, Harvey &amp; Harms, 2022
 Antsirananaella lorenzorum Lorenz, Loria, Harvey &amp; Harms, 2022
@@ -576,7 +592,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Lorenz, Loria, Harvey et Harms en 2022 dans les Feaellidae.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lorenz, Loria, Harvey &amp; Harms, 2022 : « The Hercules pseudoscorpions from Madagascar: A systematic study of Feaellidae (Pseudoscorpiones: Feaelloidea) highlights regional endemism and diversity in one of the “hottest” biodiversity hotspots. » Arthropod Systematics &amp; Phylogeny, vol. 80, p. 649-691.</t>
         </is>
